--- a/data/income_statement/3digits/total/231_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/231_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>231-Manufacture of glass and glass products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>231-Manufacture of glass and glass products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>4815809.79472</v>
+        <v>4815809.794720001</v>
       </c>
       <c r="D5" s="47" t="n">
         <v>5610465.477630001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>6558488.86049</v>
+        <v>6559453.37855</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>7072322.715680001</v>
+        <v>7073164.75638</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>8024317.79399</v>
+        <v>8028908.48612</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>9632358.579229999</v>
+        <v>9652223.627039999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>10971338.39071</v>
+        <v>11041788.59947</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>12483587.77379</v>
+        <v>12485360.40698</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>14690215.37692</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>17292968.36007</v>
+        <v>17296229.41575</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>19865921.30691</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>19899703.44164</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>16850511.309</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>3705125.188</v>
+        <v>3705125.188000001</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>4385962.98286</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>5134032.658960001</v>
+        <v>5134989.844799999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>5659520.80982</v>
+        <v>5660362.85052</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>6456767.152199999</v>
+        <v>6461269.216130001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>7882285.35084</v>
+        <v>7898727.803590001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>9150458.155929999</v>
+        <v>9191018.22174</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>10369970.79169</v>
+        <v>10371778.7325</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>12040590.09848</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>13684098.46161</v>
+        <v>13687358.4202</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>15265649.49955</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>15298451.45605</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>13088661.706</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1049115.59289</v>
@@ -1043,10 +959,10 @@
         <v>1460728.58396</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1637552.58059</v>
+        <v>1640385.95705</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1685750.44598</v>
+        <v>1714979.58643</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>1923087.02764</v>
@@ -1058,91 +974,106 @@
         <v>3471674.1071</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>4416938.098470001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>4417717.84479</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3532749.276</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>61569.01383</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>83177.01461999999</v>
+        <v>83177.01462</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>101079.64646</v>
+        <v>101086.97868</v>
       </c>
       <c r="F8" s="48" t="n">
         <v>102631.53822</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>106822.05783</v>
+        <v>106910.68603</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>112520.6478</v>
+        <v>113109.8664</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>135129.7888</v>
+        <v>135790.7913</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>190529.95446</v>
+        <v>190494.64684</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>191781.65281</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>137195.79136</v>
+        <v>137196.88845</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>183333.70889</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>183534.1408</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>229100.327</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>346858.224</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>384987.1301900001</v>
+        <v>384987.13019</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>421501.42515</v>
+        <v>421523.43686</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>499458.59239</v>
+        <v>499474.62452</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>519512.38986</v>
+        <v>519529.16621</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>579498.0284699999</v>
+        <v>579591.5600300001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>688639.09002</v>
+        <v>689928.9428900001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>896899.60276</v>
+        <v>896890.8201700001</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>1088405.61054</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1240835.54254</v>
+        <v>1240838.32531</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1488054.35135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1488500.70982</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>708183.698</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>25528.02799</v>
@@ -1151,37 +1082,42 @@
         <v>27533.37642</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>31118.76782</v>
+        <v>31140.77953</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>36792.29691</v>
+        <v>36805.17276</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>44620.63890999999</v>
+        <v>44637.41526000001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>60722.34206999999</v>
+        <v>60799.63428</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>76039.60649999999</v>
+        <v>77054.28392</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>121202.11114</v>
+        <v>121210.04436</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>122861.69421</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>163071.25301</v>
+        <v>163073.17378</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>146617.83443</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>146682.16722</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>196845.627</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>225341.32909</v>
@@ -1193,19 +1129,19 @@
         <v>268803.44545</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>314773.1133</v>
+        <v>314776.26958</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>299411.36337</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>316999.54254</v>
+        <v>317015.78189</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>387799.5894299999</v>
+        <v>387800.30734</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>523099.8677300001</v>
+        <v>523083.1519200001</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>661504.02033</v>
@@ -1214,13 +1150,18 @@
         <v>748172.96763</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>871041.80519</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>870993.2229399999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>218897.82</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>95988.86692</v>
@@ -1241,7 +1182,7 @@
         <v>201776.14386</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>224799.89409</v>
+        <v>225074.35163</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>252597.62389</v>
@@ -1250,55 +1191,65 @@
         <v>304039.896</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>329591.3219</v>
+        <v>329592.1839000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>470394.71173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>470825.31966</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>292440.251</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>4468951.570719999</v>
+        <v>4468951.57072</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>5225478.347440001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>6136987.435339999</v>
+        <v>6137929.941690001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>6572864.12329</v>
+        <v>6573690.131860001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>7504805.40413</v>
+        <v>7509379.31991</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>9052860.550760001</v>
+        <v>9072632.06701</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>10282699.30069</v>
+        <v>10351859.65658</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>11586688.17103</v>
+        <v>11588469.58681</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>13601809.76638</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>16052132.81753</v>
+        <v>16055391.09044</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>18377866.95556</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>18411202.73182</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>16142327.611</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>3465279.68201</v>
@@ -1307,37 +1258,42 @@
         <v>3969210.61043</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>4533558.24919</v>
+        <v>4534332.936109999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>5180000.90496</v>
+        <v>5180897.786709999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>5972395.98091</v>
+        <v>5976130.458249999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>7080106.26992</v>
+        <v>7094156.42747</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>8054840.735530001</v>
+        <v>8112131.55878</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>9062491.347130001</v>
+        <v>9063685.082799999</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>10262667.08591</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>11616284.12935</v>
+        <v>11619594.18106</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>13400436.10153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>13429808.93594</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>11815940.255</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>2462924.75374</v>
@@ -1346,79 +1302,89 @@
         <v>2805604.99368</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>3210057.3777</v>
+        <v>3210831.74226</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>3676361.27738</v>
+        <v>3677258.15913</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>4282510.39146</v>
+        <v>4286230.26811</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>4942163.327769999</v>
+        <v>4951738.42568</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>5483257.373609998</v>
+        <v>5533421.275789999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>6457796.87733</v>
+        <v>6458928.8439</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>7723843.72696</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>9266553.395270001</v>
+        <v>9268491.386629999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>11197873.32017</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>11209707.96942</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>10509984.653</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>884297.8531699998</v>
+        <v>884297.8531699999</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>1034020.64819</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1165636.8923</v>
+        <v>1165637.21466</v>
       </c>
       <c r="F16" s="48" t="n">
         <v>1349194.82867</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1507983.722</v>
+        <v>1507998.32269</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1929190.67801</v>
+        <v>1933665.73765</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2373347.680480001</v>
+        <v>2380474.60155</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2432032.66581</v>
+        <v>2432094.43491</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2326905.850850001</v>
+        <v>2326905.85085</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2046742.43816</v>
+        <v>2047975.46407</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1880556.87711</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1897725.61409</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1095610.111</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>89500.69196</v>
+        <v>89500.69196000001</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>109114.11417</v>
@@ -1445,16 +1411,21 @@
         <v>160162.4193</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>239436.52575</v>
+        <v>239566.23818</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>246086.11763</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>246455.56581</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>186345.219</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>28556.38314</v>
@@ -1475,25 +1446,30 @@
         <v>69415.64767000001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>51828.94945</v>
+        <v>51828.94944999999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>53594.26848000001</v>
+        <v>53594.26848</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>51755.0888</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>63551.77017000001</v>
+        <v>63561.09218</v>
       </c>
       <c r="M18" s="48" t="n">
         <v>75919.78662</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>24000.272</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1003671.88871</v>
@@ -1502,76 +1478,86 @@
         <v>1256267.73701</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1603429.18615</v>
+        <v>1603597.00558</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1392863.21833</v>
+        <v>1392792.34515</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1532409.42322</v>
+        <v>1533248.86166</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1972754.28084</v>
+        <v>1978475.63954</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2227858.56516</v>
+        <v>2239728.0978</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2524196.8239</v>
+        <v>2524784.50401</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>3339142.68047</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>4435848.688180001</v>
+        <v>4435796.90938</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>4977430.85403</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4981393.795879999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4326387.356</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>686215.9700799999</v>
+        <v>686215.97008</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>728200.45576</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>846954.81108</v>
+        <v>847039.0070699999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>941026.87647</v>
+        <v>941075.91377</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1015853.47401</v>
+        <v>1016529.0834</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1225366.10118</v>
+        <v>1229416.26722</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1420698.33194</v>
+        <v>1428028.16309</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1622189.27864</v>
+        <v>1622220.49019</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1779595.13296</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2032732.97839</v>
+        <v>2047380.70228</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2491189.10233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2494544.22074</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2051956.766</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>28028.48921</v>
@@ -1601,16 +1587,21 @@
         <v>32943.37054</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>28865.50452</v>
+        <v>28870.31452</v>
       </c>
       <c r="M21" s="48" t="n">
         <v>36194.31713</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>18952.153</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>312310.86456</v>
@@ -1619,37 +1610,42 @@
         <v>331511.53987</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>401344.77056</v>
+        <v>401381.76557</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>445426.4028</v>
+        <v>445443.15529</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>460006.45628</v>
+        <v>460016.03136</v>
       </c>
       <c r="H22" s="48" t="n">
         <v>577070.18952</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>653931.06551</v>
+        <v>656966.2138200001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>792544.41183</v>
+        <v>792556.30597</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>955284.0799</v>
+        <v>955284.0799000001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1175192.19058</v>
+        <v>1175860.46953</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1467894.96986</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1468331.17739</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1172642.93</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>345876.61631</v>
@@ -1658,76 +1654,86 @@
         <v>365136.06209</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>412336.22403</v>
+        <v>412383.4250100001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>468279.04587</v>
+        <v>468311.33068</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>521509.2815399999</v>
+        <v>522175.31585</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>604464.1077399999</v>
+        <v>608514.2737799999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>708588.1381100001</v>
+        <v>712882.8209500001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>769677.20444</v>
+        <v>769696.52185</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>791367.68252</v>
+        <v>791367.6825199999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>828675.2832899999</v>
+        <v>842649.9182300001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>987099.8153400002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>990018.7262200001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>860361.683</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>317455.91863</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>528067.2812499999</v>
+        <v>528067.28125</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>756474.37507</v>
+        <v>756557.9985099999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>451836.34186</v>
+        <v>451716.43138</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>516555.94921</v>
+        <v>516719.77826</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>747388.17966</v>
+        <v>749059.37232</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>807160.2332199999</v>
+        <v>811699.9347100001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>902007.54526</v>
+        <v>902564.0138199999</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1559547.54751</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2403115.70979</v>
+        <v>2388416.2071</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2486241.7517</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2486849.57514</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2274430.59</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>356297.61664</v>
@@ -1742,37 +1748,42 @@
         <v>983684.5577299999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1621473.83343</v>
+        <v>1621552.38474</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1772300.95851</v>
+        <v>1773453.74456</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1438530.66868</v>
+        <v>1439715.61107</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1782207.46023</v>
+        <v>1782229.77063</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1368286.16209</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2553863.59929</v>
+        <v>2572040.41344</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>4798960.773879999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>4799527.66691</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2866111.377</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>16325.00906</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>50489.42344</v>
+        <v>50489.42344000001</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>48665.56331000001</v>
@@ -1799,13 +1810,18 @@
         <v>2943.62391</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>48659.06842</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>48452.76045</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>858844.703</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,17 +1856,22 @@
       <c r="M27" s="48" t="n">
         <v>202725.47916</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>1301.992</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>47045.63924</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>44071.55519000001</v>
+        <v>44071.55519</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>59088.03773</v>
@@ -1859,13 +1880,13 @@
         <v>69062.62910999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>68757.61456</v>
+        <v>68836.16587000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>110035.51055</v>
+        <v>110035.62845</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>117701.91789</v>
+        <v>117812.59983</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>170714.10247</v>
@@ -1874,16 +1895,21 @@
         <v>219051.00274</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>230547.0584</v>
+        <v>237442.06844</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>319383.43507</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>319402.1409000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>82078.211</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>8736.724179999999</v>
@@ -1916,13 +1942,18 @@
         <v>112.31266</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>2997.43116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>2073.34187</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>3039.722</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1535.56473</v>
@@ -1940,16 +1971,16 @@
         <v>12501.10258</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>9429.866189999999</v>
+        <v>9458.342000000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2279.44832</v>
+        <v>2673.36032</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>2713.83708</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>6838.37186</v>
+        <v>6838.371859999999</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>6610.517019999999</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>17290.32584</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>17044.511</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>725.2199199999999</v>
@@ -1973,7 +2009,7 @@
         <v>799.5428299999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>48.03076</v>
+        <v>48.03075999999999</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>177069.52333</v>
@@ -1982,7 +2018,7 @@
         <v>248851.86262</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>74223.64312000001</v>
+        <v>74223.79567000001</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>595326.7801399999</v>
@@ -1991,55 +2027,65 @@
         <v>94480.19728000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>86240.70457</v>
+        <v>86241.85090999999</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>99228.63988999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>134432.054</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>243080.348</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>478693.1302499999</v>
+        <v>478693.13025</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>844388.65603</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>646404.5787000001</v>
+        <v>646404.5787000002</v>
       </c>
       <c r="G32" s="48" t="n">
         <v>1168850.42793</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1119674.9114</v>
+        <v>1119739.24644</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>941094.23714</v>
+        <v>941771.87604</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>681012.77936</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>678109.16278</v>
+        <v>678109.1627800001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1878365.7675</v>
+        <v>1889618.39228</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>3724860.77854</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>3726090.71799</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1628133.364</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>835.7200799999999</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>11553.01435</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>6663.524</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>1152.613</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>38013.39143</v>
@@ -2126,7 +2182,7 @@
         <v>33462.19247</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>33893.06505999999</v>
+        <v>33893.06506</v>
       </c>
       <c r="F35" s="48" t="n">
         <v>28730.76054</v>
@@ -2135,28 +2191,33 @@
         <v>37978.15617</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>95641.52562</v>
+        <v>96701.38292</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>95548.86219</v>
+        <v>95551.41919</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>134658.87259</v>
+        <v>134681.18299</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>178954.13139</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>313890.6622500001</v>
+        <v>313918.69524</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>372262.6014500001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>372711.24646</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>133420.683</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>255988.58925</v>
@@ -2168,37 +2229,42 @@
         <v>834896.81776</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>659652.50547</v>
+        <v>659655.2666699999</v>
       </c>
       <c r="G36" s="47" t="n">
         <v>1231463.38494</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1129780.93848</v>
+        <v>1130097.01715</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>956179.3587099999</v>
+        <v>957392.4139999999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>809626.9110600002</v>
+        <v>809619.1039599999</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>860974.96483</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2199641.198499999</v>
+        <v>2205388.33368</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>3910620.15806</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>3910896.12714</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1232798.046</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>3249.869499999999</v>
+        <v>3249.8695</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>3041.57805</v>
@@ -2213,13 +2279,13 @@
         <v>694.30476</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>3787.52802</v>
+        <v>3787.528020000001</v>
       </c>
       <c r="I37" s="48" t="n">
         <v>2208.60352</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>8828.562800000002</v>
+        <v>8828.5628</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>1474.49476</v>
@@ -2228,19 +2294,24 @@
         <v>3489.2758</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>3918.90988</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>3919.28788</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>5389.563</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>22357.84278</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>5623.75185</v>
+        <v>5623.751850000001</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>14459.29935</v>
@@ -2252,7 +2323,7 @@
         <v>9431.574430000001</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>15180.48061</v>
+        <v>15381.6987</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>12999.32651</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>66927.14556999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>14125.092</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>523.07455</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>132.87358</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>105.76</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>224144.14734</v>
@@ -2321,37 +2402,42 @@
         <v>401388.7354</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>811324.9533200001</v>
+        <v>811324.95332</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>631739.5109499999</v>
+        <v>631742.2721500001</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>1183774.92326</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1078137.27352</v>
+        <v>1078146.2537</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>901232.3124299999</v>
+        <v>902302.40119</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>717855.7108100001</v>
+        <v>717855.4900899999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>777177.9564699999</v>
+        <v>777177.95647</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1823664.47827</v>
+        <v>1829411.61345</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>3797356.05325</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>3797620.27357</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1170629.726</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>188.91282</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>6273.9675</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>11768.482</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.18376</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>5524.5585</v>
@@ -2441,34 +2537,39 @@
         <v>3553.127730000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>5761.73035</v>
+        <v>5761.730350000001</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>6695.76216</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>14782.14529</v>
+        <v>14888.02569</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>19623.47259</v>
+        <v>19766.43912</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>11318.50498</v>
+        <v>11310.9186</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>24473.15037</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>41870.47564000001</v>
+        <v>41870.47564</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>36011.20828</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>36022.57904</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>30779.423</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>157582.59113</v>
@@ -2477,37 +2578,42 @@
         <v>144977.88136</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>187015.38632</v>
+        <v>187045.29585</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>134709.35854</v>
+        <v>134722.89649</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>202319.18903</v>
+        <v>202392.34599</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>307388.57306</v>
+        <v>308437.60638</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>362709.54624</v>
+        <v>366535.09545</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>538408.28215</v>
+        <v>538408.1512000001</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>633965.76546</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1016574.29339</v>
+        <v>1019129.15736</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1170980.63547</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1171101.6681</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1033057.21</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>91054.1446</v>
@@ -2516,43 +2622,48 @@
         <v>70028.08271</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>94640.18559000001</v>
+        <v>94670.09512</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>95262.68283000002</v>
+        <v>95276.22078</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>148439.78054</v>
+        <v>148512.9375</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>227690.3996</v>
+        <v>228294.32028</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>240689.19847</v>
+        <v>244514.74768</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>354797.2051900001</v>
+        <v>354797.07424</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>395716.4841600001</v>
+        <v>395716.48416</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>544811.7949</v>
+        <v>546521.83639</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>640109.00862</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>640230.0412499999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>506083.175</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>66528.44652999999</v>
+        <v>66528.44653</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>74949.79865</v>
+        <v>74949.79865000001</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>92375.20072999998</v>
@@ -2561,10 +2672,10 @@
         <v>39446.67571</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>53879.40848999999</v>
+        <v>53879.40849</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>79698.17345999999</v>
+        <v>80143.28610000001</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>122020.34777</v>
@@ -2576,16 +2687,21 @@
         <v>238249.2813</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>471762.49849</v>
+        <v>472607.3209699999</v>
       </c>
       <c r="M46" s="48" t="n">
         <v>530871.62685</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>526974.035</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>260182.35489</v>
@@ -2594,76 +2710,86 @@
         <v>606763.60921</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>746616.30303</v>
+        <v>746670.0169399999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>641159.03558</v>
+        <v>641022.8259500002</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>704247.20867</v>
+        <v>704416.4320700001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1082519.62663</v>
+        <v>1083978.49335</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>926801.9969500001</v>
+        <v>927488.0363299999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1336179.81228</v>
+        <v>1336766.52929</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>1432892.97931</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1740763.81719</v>
+        <v>1735939.1295</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2203601.73205</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2204379.44681</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2874686.711</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>86737.478</v>
+        <v>86737.47800000002</v>
       </c>
       <c r="D48" s="47" t="n">
         <v>112723.49777</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>90240.82233</v>
+        <v>90240.82233000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>95219.37838000001</v>
+        <v>95238.17773000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>379296.53492</v>
+        <v>379296.54012</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>170092.76932</v>
+        <v>170101.36808</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>139075.71948</v>
+        <v>139676.52786</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>184309.0775</v>
+        <v>184313.22843</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>397145.42492</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>391213.18448</v>
+        <v>393473.69479</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>361419.47835</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>361419.58177</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>245319.546</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>2765.47325</v>
@@ -2681,10 +2807,10 @@
         <v>691.4580999999999</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1264.3022</v>
+        <v>1272.90096</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1555.2266</v>
+        <v>1581.7086</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>1036.45309</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>1222.71749</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>2994.432</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>83972.00474999999</v>
@@ -2714,34 +2845,39 @@
         <v>89804.78965000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>94337.79956000001</v>
+        <v>94356.59891</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>378605.07682</v>
+        <v>378605.08202</v>
       </c>
       <c r="H50" s="48" t="n">
         <v>168828.46712</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>137520.49288</v>
+        <v>138094.81926</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>183272.62441</v>
+        <v>183276.77534</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>394583.27147</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>389059.16255</v>
+        <v>391319.67286</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>360196.76086</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>360196.86428</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>242325.114</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>173508.80879</v>
@@ -2753,34 +2889,39 @@
         <v>224715.93179</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>191833.66547</v>
+        <v>191902.15331</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>265856.70759</v>
+        <v>266008.46627</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>278795.61773</v>
+        <v>278796.80866</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>281947.6121300001</v>
+        <v>282033.63939</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>306709.46534</v>
+        <v>306685.58399</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>336405.84476</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>468124.83623</v>
+        <v>476653.93255</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>474694.90117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>475113.04601</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>269953.72</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>133537.73152</v>
@@ -2792,7 +2933,7 @@
         <v>125535.50328</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>137426.29622</v>
+        <v>137494.78406</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>176089.78835</v>
@@ -2810,16 +2951,21 @@
         <v>123623.92933</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>252535.13475</v>
+        <v>261063.82893</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>303115.92749</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>303115.9278300001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>174687.377</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>3775.65313</v>
@@ -2840,7 +2986,7 @@
         <v>6373.900540000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>4275.433190000001</v>
+        <v>4277.39481</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>27677.12686</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>15647.95613</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>3056.585</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>36195.42414</v>
@@ -2870,73 +3021,83 @@
         <v>95716.00833</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>53195.24237000001</v>
+        <v>53195.24237</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>78380.66452000001</v>
+        <v>78532.4232</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>123615.38701</v>
+        <v>123616.57794</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>118892.02666</v>
+        <v>118976.0923</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>149849.38941</v>
+        <v>149825.50806</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>207974.88745</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>210900.53992</v>
+        <v>210900.94206</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>155931.01755</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>156349.16205</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>92209.758</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>173411.0241</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>564199.45279</v>
+        <v>564199.4527900001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>612141.1935699999</v>
+        <v>612194.9074800001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>544544.7484899999</v>
+        <v>544358.85037</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>817687.036</v>
+        <v>817704.50592</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>973816.77822</v>
+        <v>975283.05277</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>783930.1043</v>
+        <v>785130.9247999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1213779.42444</v>
+        <v>1214394.17373</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1493632.55947</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1663852.16544</v>
+        <v>1652758.89174</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2090326.30923</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2090685.98257</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2850052.537</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>53323.20832</v>
@@ -2951,13 +3112,13 @@
         <v>83331.80484</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>113057.80282</v>
+        <v>113096.30893</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>123061.98161</v>
+        <v>123069.10989</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>130049.14305</v>
+        <v>130359.34641</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>134004.9152</v>
@@ -2966,52 +3127,60 @@
         <v>145139.17835</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>252652.43393</v>
+        <v>252657.8028</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>117442.90667</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>118064.62834</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>174410.317</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>120087.81578</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>460361.4856599999</v>
+        <v>460361.48566</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>475960.55423</v>
+        <v>476014.2681399999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>461212.94365</v>
+        <v>461027.0455299999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>704629.2331800001</v>
+        <v>704608.1969899999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>850754.7966099998</v>
+        <v>852213.94288</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>653880.9612500001</v>
+        <v>654771.57839</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1079774.50924</v>
+        <v>1080389.25853</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1348493.38112</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>1411199.73151</v>
+        <v>1400101.08894</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1972883.40256</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1972621.35423</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2675642.22</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>715</v>
@@ -3038,19 +3210,19 @@
         <v>722</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="J59" s="35" t="n">
         <v>613</v>
@@ -3059,13 +3231,16 @@
         <v>659</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>640</v>
+        <v>688</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>712</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>